--- a/PTS_Project/stock_prices.xlsx
+++ b/PTS_Project/stock_prices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oct 26 2015" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <t>MSFT</t>
   </si>
   <si>
-    <t>GE </t>
-  </si>
-  <si>
     <t>NKE</t>
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>GE</t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="M21" sqref="K21:M24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -370,7 +370,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>200</v>
@@ -381,7 +381,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>750</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>200</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>750</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>150</v>
